--- a/backend/files/xlsx/周青详细作答2020_11_30测试数据.xlsx
+++ b/backend/files/xlsx/周青详细作答2020_11_30测试数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>作答次数</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>0分钟</t>
+  </si>
+  <si>
+    <t>第2次</t>
+  </si>
+  <si>
+    <t>0.07分钟</t>
+  </si>
+  <si>
+    <t>2020-12-02 18:12:45</t>
+  </si>
+  <si>
+    <t>D. 1111  1111  1111  0111</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>print('hr')</t>
+  </si>
+  <si>
+    <t>0.15分钟</t>
+  </si>
+  <si>
+    <t>print('sjajs')</t>
+  </si>
+  <si>
+    <t>0.1分钟</t>
   </si>
 </sst>
 </file>
@@ -494,7 +521,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +878,326 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
         <v>19</v>
       </c>
     </row>
